--- a/RQ2/Defect List.xlsx
+++ b/RQ2/Defect List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myz/DrExp/UPMTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myz/DrExp/UPMTest/ASEopenscience/DevMuTase2024/RQ2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72DD30-067A-4543-9D3A-022B3800C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6D6FF7-CFCB-6B4B-973E-B1D711F141B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-640" windowWidth="38400" windowHeight="21100" xr2:uid="{90041E12-3F02-465C-8450-6AA3B45F55AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{90041E12-3F02-465C-8450-6AA3B45F55AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Count" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="204">
   <si>
     <t>mindspore-assistant
 sig/frontend
@@ -778,10 +778,6 @@
   </si>
   <si>
     <t>Precision oscillations during network training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerFormance Defect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1662,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BF7CAB-31EF-634D-81A8-3A3B306970CD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1778,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392EEA79-9185-AF4C-89CC-C13F7B434479}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1844,9 +1840,7 @@
       <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="232">
       <c r="A6" s="5" t="s">
@@ -1858,13 +1852,11 @@
       <c r="C6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="116">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -1875,7 +1867,7 @@
     </row>
     <row r="8" spans="1:4" ht="145">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -1886,7 +1878,7 @@
     </row>
     <row r="9" spans="1:4" ht="116">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -1895,7 +1887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="145">
+    <row r="10" spans="1:4" ht="116">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1906,9 +1898,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="87">
+    <row r="11" spans="1:4" ht="58">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>68</v>
@@ -1916,7 +1908,7 @@
     </row>
     <row r="12" spans="1:4" ht="58">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>68</v>
@@ -1924,7 +1916,7 @@
     </row>
     <row r="13" spans="1:4" ht="58">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>68</v>
@@ -1932,7 +1924,7 @@
     </row>
     <row r="14" spans="1:4" ht="58">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>68</v>
@@ -1941,7 +1933,7 @@
     </row>
     <row r="15" spans="1:4" ht="58">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>68</v>
@@ -1949,7 +1941,7 @@
     </row>
     <row r="16" spans="1:4" ht="58">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>68</v>
@@ -2341,7 +2333,7 @@
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58">
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -2352,12 +2344,12 @@
         <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="174">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>62</v>
@@ -2366,12 +2358,12 @@
         <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="261">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
@@ -2380,12 +2372,12 @@
         <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="203">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
@@ -2394,12 +2386,12 @@
         <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="290">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -2408,12 +2400,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="174">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -2422,12 +2414,12 @@
         <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="232">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -2436,12 +2428,12 @@
         <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="174">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -2450,7 +2442,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="348">
@@ -2464,12 +2456,12 @@
         <v>65</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="232">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -2478,29 +2470,29 @@
         <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="87">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="87">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2531,7 @@
     </row>
     <row r="2" spans="1:6" ht="87">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>53</v>
@@ -2550,7 +2542,7 @@
     </row>
     <row r="3" spans="1:6" ht="174">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2561,7 +2553,7 @@
     </row>
     <row r="4" spans="1:6" ht="174">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -2572,7 +2564,7 @@
     </row>
     <row r="5" spans="1:6" ht="116">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -2583,7 +2575,7 @@
     </row>
     <row r="6" spans="1:6" ht="145">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -2594,7 +2586,7 @@
     </row>
     <row r="7" spans="1:6" ht="116">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -2605,10 +2597,10 @@
     </row>
     <row r="8" spans="1:6" ht="145">
       <c r="A8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>65</v>
@@ -2617,7 +2609,7 @@
     </row>
     <row r="9" spans="1:6" ht="145">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -2629,7 +2621,7 @@
     </row>
     <row r="10" spans="1:6" ht="116">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -2641,7 +2633,7 @@
     </row>
     <row r="11" spans="1:6" ht="174">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
@@ -2652,7 +2644,7 @@
     </row>
     <row r="12" spans="1:6" ht="87">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -2663,7 +2655,7 @@
     </row>
     <row r="13" spans="1:6" ht="145">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -2674,7 +2666,7 @@
     </row>
     <row r="14" spans="1:6" ht="116">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -2685,7 +2677,7 @@
     </row>
     <row r="15" spans="1:6" ht="116">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>48</v>
@@ -2697,7 +2689,7 @@
     </row>
     <row r="16" spans="1:6" ht="145">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -2710,7 +2702,7 @@
     </row>
     <row r="17" spans="1:6" ht="116">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
@@ -2722,7 +2714,7 @@
     </row>
     <row r="18" spans="1:6" ht="87">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -2734,7 +2726,7 @@
     </row>
     <row r="19" spans="1:6" ht="116">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
@@ -2746,7 +2738,7 @@
     </row>
     <row r="20" spans="1:6" ht="116">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>72</v>
@@ -2759,7 +2751,7 @@
     </row>
     <row r="21" spans="1:6" ht="116">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
@@ -2772,10 +2764,10 @@
     </row>
     <row r="22" spans="1:6" ht="262">
       <c r="A22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>65</v>
@@ -2783,7 +2775,7 @@
     </row>
     <row r="23" spans="1:6" ht="145">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
@@ -2795,7 +2787,7 @@
     </row>
     <row r="24" spans="1:6" ht="203">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -2809,7 +2801,7 @@
     </row>
     <row r="25" spans="1:6" ht="116">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
@@ -2820,10 +2812,10 @@
     </row>
     <row r="26" spans="1:6" ht="116">
       <c r="A26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>65</v>
@@ -2831,10 +2823,10 @@
     </row>
     <row r="27" spans="1:6" ht="320">
       <c r="A27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>65</v>
@@ -2842,7 +2834,7 @@
     </row>
     <row r="28" spans="1:6" ht="174">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -2851,7 +2843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="203">
+    <row r="29" spans="1:6" ht="145">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2876,7 +2868,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="409.6">
+    <row r="31" spans="1:6" ht="261">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -2892,7 +2884,7 @@
     </row>
     <row r="32" spans="1:6" ht="87">
       <c r="A32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
@@ -2921,7 +2913,7 @@
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58">
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -2934,7 +2926,7 @@
     </row>
     <row r="2" spans="1:4" ht="409.6">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2945,7 +2937,7 @@
     </row>
     <row r="3" spans="1:4" ht="116">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -2956,7 +2948,7 @@
     </row>
     <row r="4" spans="1:4" ht="232">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -2967,7 +2959,7 @@
     </row>
     <row r="5" spans="1:4" ht="116">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -2978,7 +2970,7 @@
     </row>
     <row r="6" spans="1:4" ht="87">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -2989,7 +2981,7 @@
     </row>
     <row r="7" spans="1:4" ht="319">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -3000,7 +2992,7 @@
     </row>
     <row r="8" spans="1:4" ht="232">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -3011,7 +3003,7 @@
     </row>
     <row r="9" spans="1:4" ht="116">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -3022,7 +3014,7 @@
     </row>
     <row r="10" spans="1:4" ht="116">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -3033,7 +3025,7 @@
     </row>
     <row r="11" spans="1:4" ht="145">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -3044,7 +3036,7 @@
     </row>
     <row r="12" spans="1:4" ht="116">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -3055,7 +3047,7 @@
     </row>
     <row r="13" spans="1:4" ht="145">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -3066,7 +3058,7 @@
     </row>
     <row r="14" spans="1:4" ht="116">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -3077,7 +3069,7 @@
     </row>
     <row r="15" spans="1:4" ht="261">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -3089,7 +3081,7 @@
     </row>
     <row r="16" spans="1:4" ht="116">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -3100,7 +3092,7 @@
     </row>
     <row r="17" spans="1:3" ht="145">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -3111,7 +3103,7 @@
     </row>
     <row r="18" spans="1:3" ht="232">
       <c r="A18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -3122,7 +3114,7 @@
     </row>
     <row r="19" spans="1:3" ht="319">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -3133,7 +3125,7 @@
     </row>
     <row r="20" spans="1:3" ht="174">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -3144,7 +3136,7 @@
     </row>
     <row r="21" spans="1:3" ht="145">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -3155,7 +3147,7 @@
     </row>
     <row r="22" spans="1:3" ht="145">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -3166,7 +3158,7 @@
     </row>
     <row r="23" spans="1:3" ht="145">
       <c r="A23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -3209,7 +3201,7 @@
     </row>
     <row r="2" spans="1:4" ht="203">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -3220,7 +3212,7 @@
     </row>
     <row r="3" spans="1:4" ht="29">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>71</v>
@@ -3231,7 +3223,7 @@
     </row>
     <row r="4" spans="1:4" ht="409.6">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3242,7 +3234,7 @@
     </row>
     <row r="5" spans="1:4" ht="232">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -3253,7 +3245,7 @@
     </row>
     <row r="6" spans="1:4" ht="290">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3267,7 +3259,7 @@
     </row>
     <row r="7" spans="1:4" ht="232">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
@@ -3278,7 +3270,7 @@
     </row>
     <row r="8" spans="1:4" ht="232">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -3289,7 +3281,7 @@
     </row>
     <row r="9" spans="1:4" ht="232">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -3300,7 +3292,7 @@
     </row>
     <row r="10" spans="1:4" ht="58">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
